--- a/xls-to-xlsx-convertor/resources/xlsx/1호선.xlsx
+++ b/xls-to-xlsx-convertor/resources/xlsx/1호선.xlsx
@@ -327,38 +327,1962 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>1111</v>
+        <v>역명(한글)</v>
       </c>
       <c r="B1" t="str">
-        <v>111</v>
+        <v>역명(영문)</v>
       </c>
       <c r="C1" t="str">
-        <v>1</v>
-      </c>
-      <c r="D1" t="str"/>
-      <c r="E1" t="str" xml:space="preserve">
-        <v> </v>
+        <v>역명(로마자)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>역명(일본어)</v>
+      </c>
+      <c r="E1" t="str">
+        <v>역명(중국어 간체)</v>
       </c>
       <c r="F1" t="str">
-        <v>1</v>
+        <v>역명(중국어 번체)</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str"/>
+      <c r="A2" t="str">
+        <v>소요산</v>
+      </c>
       <c r="B2" t="str">
-        <v>1</v>
+        <v>Soyosan</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v>Soyosan</v>
+      </c>
+      <c r="D2" t="str">
+        <v>ソヨサン</v>
+      </c>
+      <c r="E2" t="str">
+        <v>逍遙山</v>
+      </c>
+      <c r="F2" t="str">
+        <v>逍遙山</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str"/>
+      <c r="A3" t="str">
+        <v>동두천</v>
+      </c>
       <c r="B3" t="str">
-        <v>1</v>
+        <v>Dongducheon</v>
       </c>
       <c r="C3" t="str">
-        <v>1</v>
+        <v>Dongducheon</v>
+      </c>
+      <c r="D3" t="str">
+        <v>トンドゥチョン</v>
+      </c>
+      <c r="E3" t="str">
+        <v>东豆川</v>
+      </c>
+      <c r="F3" t="str">
+        <v>東豆川</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>보산</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Bosan</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Bosan</v>
+      </c>
+      <c r="D4" t="str">
+        <v>ポサン</v>
+      </c>
+      <c r="E4" t="str">
+        <v>保山</v>
+      </c>
+      <c r="F4" t="str">
+        <v>保山</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>동두천중앙</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Dongducheon Jungang</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Dongducheon Jungang</v>
+      </c>
+      <c r="D5" t="str">
+        <v>トンドゥチョンチュンアン</v>
+      </c>
+      <c r="E5" t="str">
+        <v>东豆川中央</v>
+      </c>
+      <c r="F5" t="str">
+        <v>東豆川中央</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>지행</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Jihaeng</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Jihaeng</v>
+      </c>
+      <c r="D6" t="str">
+        <v>チヘン</v>
+      </c>
+      <c r="E6" t="str">
+        <v>纸杏</v>
+      </c>
+      <c r="F6" t="str">
+        <v>紙杏</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>덕정</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Deokjeong</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Deokjeong</v>
+      </c>
+      <c r="D7" t="str">
+        <v>トクチョン</v>
+      </c>
+      <c r="E7" t="str">
+        <v>德亭</v>
+      </c>
+      <c r="F7" t="str">
+        <v>德亭</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>덕계</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Deokgye</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Deokgye</v>
+      </c>
+      <c r="D8" t="str">
+        <v>トッケ</v>
+      </c>
+      <c r="E8" t="str">
+        <v>德溪</v>
+      </c>
+      <c r="F8" t="str">
+        <v>德溪</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>양주</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Yangju</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Yangju</v>
+      </c>
+      <c r="D9" t="str">
+        <v>ヤンジュ</v>
+      </c>
+      <c r="E9" t="str">
+        <v>杨州</v>
+      </c>
+      <c r="F9" t="str">
+        <v>楊州</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>녹양</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Nogyang</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Nogyang</v>
+      </c>
+      <c r="D10" t="str">
+        <v>ノギャン</v>
+      </c>
+      <c r="E10" t="str">
+        <v>绿杨</v>
+      </c>
+      <c r="F10" t="str">
+        <v>綠楊</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>가능</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Ganeung</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Ganeung</v>
+      </c>
+      <c r="D11" t="str">
+        <v>カヌン</v>
+      </c>
+      <c r="E11" t="str">
+        <v>佳陵</v>
+      </c>
+      <c r="F11" t="str">
+        <v>佳陵</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>의정부</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Uijeongbu</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Uijeongbu</v>
+      </c>
+      <c r="D12" t="str">
+        <v>ウィジョンブ</v>
+      </c>
+      <c r="E12" t="str">
+        <v>议政府</v>
+      </c>
+      <c r="F12" t="str">
+        <v>議政府</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>회룡</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Hoeryong</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Hoeryong</v>
+      </c>
+      <c r="D13" t="str">
+        <v>フェリョン</v>
+      </c>
+      <c r="E13" t="str">
+        <v>回龙站</v>
+      </c>
+      <c r="F13" t="str">
+        <v>回龍</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>망월사</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Mangwolsa</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Mangwolsa</v>
+      </c>
+      <c r="D14" t="str">
+        <v>マンウォルサ</v>
+      </c>
+      <c r="E14" t="str">
+        <v>望月寺</v>
+      </c>
+      <c r="F14" t="str">
+        <v>望月寺</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>도봉산</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Dobongsan</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Dobongsan</v>
+      </c>
+      <c r="D15" t="str">
+        <v>トボンサン</v>
+      </c>
+      <c r="E15" t="str">
+        <v>道峰山</v>
+      </c>
+      <c r="F15" t="str">
+        <v>道峰山</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>도봉</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Dobong</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Dobong</v>
+      </c>
+      <c r="D16" t="str">
+        <v>トボン</v>
+      </c>
+      <c r="E16" t="str">
+        <v>道峰</v>
+      </c>
+      <c r="F16" t="str">
+        <v>道峰</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>방학</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Banghak</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Banghak</v>
+      </c>
+      <c r="D17" t="str">
+        <v>パンハク</v>
+      </c>
+      <c r="E17" t="str">
+        <v>放鹤</v>
+      </c>
+      <c r="F17" t="str">
+        <v>放鶴</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>창동</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Changdong</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Chang-dong</v>
+      </c>
+      <c r="D18" t="str">
+        <v>チャンドン</v>
+      </c>
+      <c r="E18" t="str">
+        <v>仓洞站</v>
+      </c>
+      <c r="F18" t="str">
+        <v>倉洞</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>녹천</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Nokcheon</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Nokcheon</v>
+      </c>
+      <c r="D19" t="str">
+        <v>ノクチョン</v>
+      </c>
+      <c r="E19" t="str">
+        <v>鹿川</v>
+      </c>
+      <c r="F19" t="str">
+        <v>鹿川</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>월계</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Wolgye</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Wolgye</v>
+      </c>
+      <c r="D20" t="str">
+        <v>ウォルゲ</v>
+      </c>
+      <c r="E20" t="str">
+        <v>月溪</v>
+      </c>
+      <c r="F20" t="str">
+        <v>月溪</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>광운대</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Kwangwoon Univ.</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Kwangwoon Univ.</v>
+      </c>
+      <c r="D21" t="str">
+        <v>クァンウンデ</v>
+      </c>
+      <c r="E21" t="str">
+        <v>光云大学</v>
+      </c>
+      <c r="F21" t="str">
+        <v>光云大</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>석계</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Seokgye</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Seokgye</v>
+      </c>
+      <c r="D22" t="str">
+        <v>ソッケ</v>
+      </c>
+      <c r="E22" t="str">
+        <v>石溪</v>
+      </c>
+      <c r="F22" t="str">
+        <v>石溪</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>신이문</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Sinimun</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Sinimun</v>
+      </c>
+      <c r="D23" t="str">
+        <v>シニムン</v>
+      </c>
+      <c r="E23" t="str">
+        <v>新里门</v>
+      </c>
+      <c r="F23" t="str">
+        <v>新里門</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>외대앞</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Hankuk Univ. of Foreign Studies</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Univ. of Foreign Studies</v>
+      </c>
+      <c r="D24" t="str">
+        <v>ウェデアプ</v>
+      </c>
+      <c r="E24" t="str">
+        <v>韓國外國語大学</v>
+      </c>
+      <c r="F24" t="str">
+        <v>外大앞</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>회기</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Hoegi</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Hoegi</v>
+      </c>
+      <c r="D25" t="str">
+        <v>フェギ</v>
+      </c>
+      <c r="E25" t="str">
+        <v>回基</v>
+      </c>
+      <c r="F25" t="str">
+        <v>回基</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>청량리</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Cheongnyangni </v>
+      </c>
+      <c r="C26" t="str">
+        <v>Cheongnyangni </v>
+      </c>
+      <c r="D26" t="str">
+        <v>チョンニャンニ</v>
+      </c>
+      <c r="E26" t="str">
+        <v>淸凉里</v>
+      </c>
+      <c r="F26" t="str">
+        <v>淸凉里</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>제기동</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Jegidong</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Jegi-dong</v>
+      </c>
+      <c r="D27" t="str">
+        <v>チェギドン</v>
+      </c>
+      <c r="E27" t="str">
+        <v>祭基洞</v>
+      </c>
+      <c r="F27" t="str">
+        <v>祭基洞</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>신설동</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Sinseoldong</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Sinseol-dong</v>
+      </c>
+      <c r="D28" t="str">
+        <v>シンソルトン</v>
+      </c>
+      <c r="E28" t="str">
+        <v>新设洞</v>
+      </c>
+      <c r="F28" t="str">
+        <v>新設洞</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>동묘앞</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Dongmyo</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Dongmyo</v>
+      </c>
+      <c r="D29" t="str">
+        <v>トンミョアプ</v>
+      </c>
+      <c r="E29" t="str">
+        <v>东庙</v>
+      </c>
+      <c r="F29" t="str">
+        <v>東廟앞</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>동대문</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Dongdaemun</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Dongdaemun</v>
+      </c>
+      <c r="D30" t="str">
+        <v>トンデムン</v>
+      </c>
+      <c r="E30" t="str">
+        <v>东大门</v>
+      </c>
+      <c r="F30" t="str">
+        <v>東大門</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>종로5가</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Jongno 5</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Jongno5-ga</v>
+      </c>
+      <c r="D31" t="str">
+        <v>チョンノオガ</v>
+      </c>
+      <c r="E31" t="str">
+        <v>钟路五街</v>
+      </c>
+      <c r="F31" t="str">
+        <v>鍾路5街</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>종로3가</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Jongno 3</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Jongno3-ga</v>
+      </c>
+      <c r="D32" t="str">
+        <v>チョンノサムガ</v>
+      </c>
+      <c r="E32" t="str">
+        <v>钟路三街站</v>
+      </c>
+      <c r="F32" t="str">
+        <v>鍾路3街</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>종각</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Jonggak</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Jonggak</v>
+      </c>
+      <c r="D33" t="str">
+        <v>チョンガク</v>
+      </c>
+      <c r="E33" t="str">
+        <v>钟阁</v>
+      </c>
+      <c r="F33" t="str">
+        <v>鐘閣</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>시청</v>
+      </c>
+      <c r="B34" t="str">
+        <v>City Hall</v>
+      </c>
+      <c r="C34" t="str">
+        <v>City Hall</v>
+      </c>
+      <c r="D34" t="str">
+        <v>シチョン</v>
+      </c>
+      <c r="E34" t="str">
+        <v>市厅</v>
+      </c>
+      <c r="F34" t="str">
+        <v>市廳</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>서울역</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Seoul Station</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Seoul Station</v>
+      </c>
+      <c r="D35" t="str">
+        <v>ソウルヨク</v>
+      </c>
+      <c r="E35" t="str">
+        <v>首尔站</v>
+      </c>
+      <c r="F35" t="str">
+        <v>首爾</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>남영</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Namyeong</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Namyeong</v>
+      </c>
+      <c r="D36" t="str">
+        <v>ナミョン</v>
+      </c>
+      <c r="E36" t="str">
+        <v>南营</v>
+      </c>
+      <c r="F36" t="str">
+        <v>南營</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>용산</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Yongsan</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Yongsan</v>
+      </c>
+      <c r="D37" t="str">
+        <v>ヨンサン</v>
+      </c>
+      <c r="E37" t="str">
+        <v>龙山</v>
+      </c>
+      <c r="F37" t="str">
+        <v>龍山</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>노량진</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Noryangjin</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Noryangjin</v>
+      </c>
+      <c r="D38" t="str">
+        <v>ノリャンジン</v>
+      </c>
+      <c r="E38" t="str">
+        <v>鹭梁津站</v>
+      </c>
+      <c r="F38" t="str">
+        <v>鷺梁津</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>대방</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Daebang</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Daebang</v>
+      </c>
+      <c r="D39" t="str">
+        <v>テバン</v>
+      </c>
+      <c r="E39" t="str">
+        <v>大方</v>
+      </c>
+      <c r="F39" t="str">
+        <v>大方</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>신길</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Singil</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Sin-gil</v>
+      </c>
+      <c r="D40" t="str">
+        <v>シンギル</v>
+      </c>
+      <c r="E40" t="str">
+        <v>新吉</v>
+      </c>
+      <c r="F40" t="str">
+        <v>新吉</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>영등포</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Yeongdeungpo</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Yeongdeungpo</v>
+      </c>
+      <c r="D41" t="str">
+        <v>ヨンドゥンポ</v>
+      </c>
+      <c r="E41" t="str">
+        <v>永登浦</v>
+      </c>
+      <c r="F41" t="str">
+        <v>永登浦</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>신도림</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Sindorim</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Sindorim</v>
+      </c>
+      <c r="D42" t="str">
+        <v>シンドリム</v>
+      </c>
+      <c r="E42" t="str">
+        <v>新道林</v>
+      </c>
+      <c r="F42" t="str">
+        <v>新道林</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>구로</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Guro</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Gu-ro</v>
+      </c>
+      <c r="D43" t="str">
+        <v>クロ</v>
+      </c>
+      <c r="E43" t="str">
+        <v>九老</v>
+      </c>
+      <c r="F43" t="str">
+        <v>九老</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>구일</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Guil</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Guil</v>
+      </c>
+      <c r="D44" t="str">
+        <v>クイル</v>
+      </c>
+      <c r="E44" t="str">
+        <v>九一</v>
+      </c>
+      <c r="F44" t="str">
+        <v>九一</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>개봉</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Gaebong</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Gaebong</v>
+      </c>
+      <c r="D45" t="str">
+        <v>ケボン</v>
+      </c>
+      <c r="E45" t="str">
+        <v>开峰</v>
+      </c>
+      <c r="F45" t="str">
+        <v>開峯</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>오류동</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Oryudong</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Oryu-dong</v>
+      </c>
+      <c r="D46" t="str">
+        <v>オリュドン</v>
+      </c>
+      <c r="E46" t="str">
+        <v>梧柳洞</v>
+      </c>
+      <c r="F46" t="str">
+        <v>梧柳洞</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>온수</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Onsu</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Onsu</v>
+      </c>
+      <c r="D47" t="str">
+        <v>オンス</v>
+      </c>
+      <c r="E47" t="str">
+        <v>温水站</v>
+      </c>
+      <c r="F47" t="str">
+        <v>溫水</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>역곡</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Yeokgok</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Yeokgok</v>
+      </c>
+      <c r="D48" t="str">
+        <v>ヨッコク</v>
+      </c>
+      <c r="E48" t="str">
+        <v>驿谷</v>
+      </c>
+      <c r="F48" t="str">
+        <v>驛谷</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>소사</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Sosa</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Sosa</v>
+      </c>
+      <c r="D49" t="str">
+        <v>ソサ</v>
+      </c>
+      <c r="E49" t="str">
+        <v>素砂</v>
+      </c>
+      <c r="F49" t="str">
+        <v>素砂</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>부천</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Bucheon</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Bucheon</v>
+      </c>
+      <c r="D50" t="str">
+        <v>プチョン</v>
+      </c>
+      <c r="E50" t="str">
+        <v>富川</v>
+      </c>
+      <c r="F50" t="str">
+        <v>富川</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>중동</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Jungdong</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Jung-dong</v>
+      </c>
+      <c r="D51" t="str">
+        <v>チュンドン</v>
+      </c>
+      <c r="E51" t="str">
+        <v>中洞</v>
+      </c>
+      <c r="F51" t="str">
+        <v>中洞</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>송내</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Songnae</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Songnae</v>
+      </c>
+      <c r="D52" t="str">
+        <v>ソンネ</v>
+      </c>
+      <c r="E52" t="str">
+        <v>松内</v>
+      </c>
+      <c r="F52" t="str">
+        <v>松內</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>부개</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Bugae</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Bugae</v>
+      </c>
+      <c r="D53" t="str">
+        <v>プゲ</v>
+      </c>
+      <c r="E53" t="str">
+        <v>富开</v>
+      </c>
+      <c r="F53" t="str">
+        <v>富開</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>부평</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Bupyeong</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Bupyeong</v>
+      </c>
+      <c r="D54" t="str">
+        <v>プピョン</v>
+      </c>
+      <c r="E54" t="str">
+        <v>富平</v>
+      </c>
+      <c r="F54" t="str">
+        <v>富平</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>백운</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Baegun</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Baegun</v>
+      </c>
+      <c r="D55" t="str">
+        <v>ペグン</v>
+      </c>
+      <c r="E55" t="str">
+        <v>白云</v>
+      </c>
+      <c r="F55" t="str">
+        <v>白雲</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>동암</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Dongam</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Dongam</v>
+      </c>
+      <c r="D56" t="str">
+        <v>トンアム</v>
+      </c>
+      <c r="E56" t="str">
+        <v>铜岩</v>
+      </c>
+      <c r="F56" t="str">
+        <v>銅岩</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>간석</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Ganseok</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Ganseok</v>
+      </c>
+      <c r="D57" t="str">
+        <v>カンソク</v>
+      </c>
+      <c r="E57" t="str">
+        <v>间石</v>
+      </c>
+      <c r="F57" t="str">
+        <v>間石</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>주안</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="D58" t="str">
+        <v>チュアン</v>
+      </c>
+      <c r="E58" t="str">
+        <v>朱安</v>
+      </c>
+      <c r="F58" t="str">
+        <v>朱安</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>도화</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Dohwa</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Dohwa</v>
+      </c>
+      <c r="D59" t="str">
+        <v>トファ</v>
+      </c>
+      <c r="E59" t="str">
+        <v>道禾</v>
+      </c>
+      <c r="F59" t="str">
+        <v>道禾</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>제물포</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Jemulpo</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Jemulpo</v>
+      </c>
+      <c r="D60" t="str">
+        <v>チェムルポ</v>
+      </c>
+      <c r="E60" t="str">
+        <v>济物浦</v>
+      </c>
+      <c r="F60" t="str">
+        <v>濟物浦</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>도원</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Dowon</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Dowon</v>
+      </c>
+      <c r="D61" t="str">
+        <v>トウォン</v>
+      </c>
+      <c r="E61" t="str">
+        <v>桃源</v>
+      </c>
+      <c r="F61" t="str">
+        <v>桃源</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>동인천</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Dongincheon</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Dongincheon</v>
+      </c>
+      <c r="D62" t="str">
+        <v>トンインチョン</v>
+      </c>
+      <c r="E62" t="str">
+        <v>东仁川</v>
+      </c>
+      <c r="F62" t="str">
+        <v>東仁川</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>인천</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Incheon</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Incheon</v>
+      </c>
+      <c r="D63" t="str">
+        <v>インチョン</v>
+      </c>
+      <c r="E63" t="str">
+        <v>仁川</v>
+      </c>
+      <c r="F63" t="str">
+        <v>仁川</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>가산디지털단지</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Gasan Digital Complex</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Gasan Dijiteol Danji</v>
+      </c>
+      <c r="D64" t="str">
+        <v>カサン·デジタルダンジ</v>
+      </c>
+      <c r="E64" t="str">
+        <v>加山数码园区</v>
+      </c>
+      <c r="F64" t="str">
+        <v>加山디지털團地</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>독산</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Doksan</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Doksan</v>
+      </c>
+      <c r="D65" t="str">
+        <v>トッサン</v>
+      </c>
+      <c r="E65" t="str">
+        <v>秃山</v>
+      </c>
+      <c r="F65" t="str">
+        <v>禿山</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>금천구청</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Geumcheon-gu Office</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Geumcheon-gu Office</v>
+      </c>
+      <c r="D66" t="str">
+        <v>クムチョングチョン</v>
+      </c>
+      <c r="E66" t="str">
+        <v>衿川区厅</v>
+      </c>
+      <c r="F66" t="str">
+        <v>衿川區廳</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>석수</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Seoksu</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Seoksu</v>
+      </c>
+      <c r="D67" t="str">
+        <v>ソッス</v>
+      </c>
+      <c r="E67" t="str">
+        <v>石水</v>
+      </c>
+      <c r="F67" t="str">
+        <v>石水</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>관악</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Gwanak</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Gwanak</v>
+      </c>
+      <c r="D68" t="str">
+        <v>クァナク</v>
+      </c>
+      <c r="E68" t="str">
+        <v>冠岳</v>
+      </c>
+      <c r="F68" t="str">
+        <v>冠岳</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>안양</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Anyang</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Anyang</v>
+      </c>
+      <c r="D69" t="str">
+        <v>アニヤン</v>
+      </c>
+      <c r="E69" t="str">
+        <v>安养</v>
+      </c>
+      <c r="F69" t="str">
+        <v>安養</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>명학</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Myeonghak</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Myeonghak</v>
+      </c>
+      <c r="D70" t="str">
+        <v>ミョンハク</v>
+      </c>
+      <c r="E70" t="str">
+        <v>鳴鶴</v>
+      </c>
+      <c r="F70" t="str">
+        <v>鳴鶴</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>금정</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Geumjeong</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Geumjeong</v>
+      </c>
+      <c r="D71" t="str">
+        <v>クムジョン</v>
+      </c>
+      <c r="E71" t="str">
+        <v>衿井</v>
+      </c>
+      <c r="F71" t="str">
+        <v>衿井</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>군포</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Gunpo</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Gunpo</v>
+      </c>
+      <c r="D72" t="str">
+        <v>クンポ</v>
+      </c>
+      <c r="E72" t="str">
+        <v>军浦</v>
+      </c>
+      <c r="F72" t="str">
+        <v>軍浦</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>당정</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Dangjeong</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Dangjeong</v>
+      </c>
+      <c r="D73" t="str">
+        <v>タンジョン</v>
+      </c>
+      <c r="E73" t="str">
+        <v>堂井</v>
+      </c>
+      <c r="F73" t="str">
+        <v>堂井</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>의왕</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Uiwang</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Uiwang</v>
+      </c>
+      <c r="D74" t="str">
+        <v>ウィワン</v>
+      </c>
+      <c r="E74" t="str">
+        <v>义王</v>
+      </c>
+      <c r="F74" t="str">
+        <v>義王</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>성균관대</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Sungkyunkwan Univ.</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Sungkyunkwan Univ.</v>
+      </c>
+      <c r="D75" t="str">
+        <v>ソンギュングァンデ</v>
+      </c>
+      <c r="E75" t="str">
+        <v>成均馆大学</v>
+      </c>
+      <c r="F75" t="str">
+        <v>成均館大</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>화서</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Hwaseo</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Hwaseo</v>
+      </c>
+      <c r="D76" t="str">
+        <v>ファソ</v>
+      </c>
+      <c r="E76" t="str">
+        <v>华西</v>
+      </c>
+      <c r="F76" t="str">
+        <v>華西</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>수원</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Suwon</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Suwon</v>
+      </c>
+      <c r="D77" t="str">
+        <v>スウォン</v>
+      </c>
+      <c r="E77" t="str">
+        <v>水原</v>
+      </c>
+      <c r="F77" t="str">
+        <v>水原</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>세류</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Seryu</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Seryu</v>
+      </c>
+      <c r="D78" t="str">
+        <v>セリュ</v>
+      </c>
+      <c r="E78" t="str">
+        <v>细柳</v>
+      </c>
+      <c r="F78" t="str">
+        <v>細柳</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>병점</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Byeongjeom</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Byeongjeom</v>
+      </c>
+      <c r="D79" t="str">
+        <v>ピョンチョム</v>
+      </c>
+      <c r="E79" t="str">
+        <v>饼店</v>
+      </c>
+      <c r="F79" t="str">
+        <v>餠店</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>서동탄</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Seodongtan</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Seodongtan</v>
+      </c>
+      <c r="D80" t="str">
+        <v>ソドンタン</v>
+      </c>
+      <c r="E80" t="str">
+        <v>西东滩</v>
+      </c>
+      <c r="F80" t="str">
+        <v>西東灘</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>세마</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Sema</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Sema</v>
+      </c>
+      <c r="D81" t="str">
+        <v>セマ</v>
+      </c>
+      <c r="E81" t="str">
+        <v>洗马</v>
+      </c>
+      <c r="F81" t="str">
+        <v>洗馬</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>오산대</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Osan Univ.</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Osandae</v>
+      </c>
+      <c r="D82" t="str">
+        <v>オサンデ</v>
+      </c>
+      <c r="E82" t="str">
+        <v>乌山大学</v>
+      </c>
+      <c r="F82" t="str">
+        <v>烏山大</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>오산</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Osan</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Osan</v>
+      </c>
+      <c r="D83" t="str">
+        <v>オサン</v>
+      </c>
+      <c r="E83" t="str">
+        <v>乌山</v>
+      </c>
+      <c r="F83" t="str">
+        <v>烏山</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>진위</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Jinwi</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Jinwi</v>
+      </c>
+      <c r="D84" t="str">
+        <v>チヌィ</v>
+      </c>
+      <c r="E84" t="str">
+        <v>振威</v>
+      </c>
+      <c r="F84" t="str">
+        <v>振威</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>송탄</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Songtan</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Songtan</v>
+      </c>
+      <c r="D85" t="str">
+        <v>ソンタン</v>
+      </c>
+      <c r="E85" t="str">
+        <v>松炭</v>
+      </c>
+      <c r="F85" t="str">
+        <v>松炭</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>서정리</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Seojeongni</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Seojeongni</v>
+      </c>
+      <c r="D86" t="str">
+        <v>ソジョンニ</v>
+      </c>
+      <c r="E86" t="str">
+        <v>西井里</v>
+      </c>
+      <c r="F86" t="str">
+        <v>西井里</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>지제</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Jije</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Jije</v>
+      </c>
+      <c r="D87" t="str">
+        <v>チジェ</v>
+      </c>
+      <c r="E87" t="str">
+        <v>芝制</v>
+      </c>
+      <c r="F87" t="str">
+        <v>芝制</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>평택</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Pyeongtaek</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Pyeongtaek</v>
+      </c>
+      <c r="D88" t="str">
+        <v>ピョンテク</v>
+      </c>
+      <c r="E88" t="str">
+        <v>平泽</v>
+      </c>
+      <c r="F88" t="str">
+        <v>平澤</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>성환</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Seonghwan</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Seonghwan</v>
+      </c>
+      <c r="D89" t="str">
+        <v>ソンファン</v>
+      </c>
+      <c r="E89" t="str">
+        <v>成欢</v>
+      </c>
+      <c r="F89" t="str">
+        <v>成歡</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>직산</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Jiksan</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Jiksan</v>
+      </c>
+      <c r="D90" t="str">
+        <v>チッサン</v>
+      </c>
+      <c r="E90" t="str">
+        <v>稷山</v>
+      </c>
+      <c r="F90" t="str">
+        <v>稷山</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>두정</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Dujeong</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Dujeong</v>
+      </c>
+      <c r="D91" t="str">
+        <v>トゥジョン</v>
+      </c>
+      <c r="E91" t="str">
+        <v>斗井</v>
+      </c>
+      <c r="F91" t="str">
+        <v>斗井</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>천안</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Cheonan</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Cheonan</v>
+      </c>
+      <c r="D92" t="str">
+        <v>チョナン</v>
+      </c>
+      <c r="E92" t="str">
+        <v>天安</v>
+      </c>
+      <c r="F92" t="str">
+        <v>天安</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>봉명</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Bongmyeong</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Bongmyeong</v>
+      </c>
+      <c r="D93" t="str">
+        <v>ポンミョン</v>
+      </c>
+      <c r="E93" t="str">
+        <v>凤鸣</v>
+      </c>
+      <c r="F93" t="str">
+        <v>鳳鳴</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>쌍용</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Ssangyong</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Ssangyong</v>
+      </c>
+      <c r="D94" t="str">
+        <v>サンヨン</v>
+      </c>
+      <c r="E94" t="str">
+        <v>双龙</v>
+      </c>
+      <c r="F94" t="str">
+        <v>雙龍</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>아산</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Asan</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Asan</v>
+      </c>
+      <c r="D95" t="str">
+        <v>アサン</v>
+      </c>
+      <c r="E95" t="str">
+        <v>牙山</v>
+      </c>
+      <c r="F95" t="str">
+        <v>牙山</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>배방</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Baebang</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Baebang</v>
+      </c>
+      <c r="D96" t="str">
+        <v>ペバン</v>
+      </c>
+      <c r="E96" t="str">
+        <v>排芳</v>
+      </c>
+      <c r="F96" t="str">
+        <v>排芳</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>온양온천</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Onyangoncheon</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Onyangoncheon</v>
+      </c>
+      <c r="D97" t="str">
+        <v>オニャンオンチョン</v>
+      </c>
+      <c r="E97" t="str">
+        <v>溫阳溫泉</v>
+      </c>
+      <c r="F97" t="str">
+        <v>溫陽溫泉</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>신창</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Sinchang </v>
+      </c>
+      <c r="C98" t="str">
+        <v>Sinchang</v>
+      </c>
+      <c r="D98" t="str">
+        <v>シンチャン</v>
+      </c>
+      <c r="E98" t="str">
+        <v>新昌</v>
+      </c>
+      <c r="F98" t="str">
+        <v>新昌</v>
       </c>
     </row>
   </sheetData>
